--- a/doc/文档/平台设置表.xlsx
+++ b/doc/文档/平台设置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,66 +168,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>网站标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一节课平台奖励积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lrss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lrcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesion_return_coach_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练等级1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时返还教练积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时返还学生积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到该等级所需经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到该等级所需经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到该等级所需i经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxappid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxsecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>copyright@2016,备案111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一节课平台奖励积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lrss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lrcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lesion_return_coach_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教练等级1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课时返还教练积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课时返还学生积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打到该等级所需经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打到该等级所需经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打到该等级所需i经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +344,32 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +398,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -442,8 +527,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,8 +564,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,9 +630,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
@@ -532,7 +682,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,7 +724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,27 +756,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,24 +790,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -851,22 +965,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24.75">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -876,7 +990,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -912,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -930,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -946,9 +1060,11 @@
       <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="F5" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -964,14 +1080,16 @@
       <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="7">
         <v>1000</v>
@@ -980,11 +1098,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -996,11 +1116,13 @@
         <v>21</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1012,11 +1134,13 @@
         <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1028,11 +1152,13 @@
         <v>23</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1044,11 +1170,13 @@
         <v>24</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1068,7 +1196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1086,7 +1214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1097,19 +1225,19 @@
       <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
+      <c r="E14" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>30</v>
@@ -1119,45 +1247,101 @@
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="E20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A21" s="5">
+        <v>13</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="13">
         <v>0</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="D21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>13</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1165,18 +1349,21 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,12 +1372,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
